--- a/work-record/作業管理表（先崎）.xlsx
+++ b/work-record/作業管理表（先崎）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuich\OneDrive\ドキュメント\Checklist\作業管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuich\OneDrive\ドキュメント\Checklist\work-record\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -120,6 +120,74 @@
     <t>同上</t>
     <rPh sb="0" eb="2">
       <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンティティのマッピング、DAOクラスの作成と実装</t>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス10個、インターフェース5個、コード追加</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッケージの構築</t>
+    <rPh sb="6" eb="8">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>githubの使い方が良くない</t>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -488,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.08203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -550,7 +618,43 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>42699</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>42703</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/work-record/作業管理表（先崎）.xlsx
+++ b/work-record/作業管理表（先崎）.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -188,6 +188,38 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAOのテストクラスの作成</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクラス6個</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAOのテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -556,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.08203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -656,6 +688,31 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>42706</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work-record/作業管理表（先崎）.xlsx
+++ b/work-record/作業管理表（先崎）.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -220,6 +220,27 @@
     <t>1時間</t>
     <rPh sb="1" eb="3">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザインアップデートに伴うクラスのアップデート</t>
+    <rPh sb="11" eb="12">
+      <t>トモナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンティティクラス6個</t>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -588,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.08203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -713,6 +734,20 @@
         <v>23</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>42710</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work-record/作業管理表（先崎）.xlsx
+++ b/work-record/作業管理表（先崎）.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -241,6 +241,37 @@
     <t>エンティティクラス6個</t>
     <rPh sb="10" eb="11">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロード処理練習</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -609,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.08203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -748,6 +779,28 @@
         <v>25</v>
       </c>
     </row>
+    <row r="11" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>42712</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
+        <v>42713</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work-record/作業管理表（先崎）.xlsx
+++ b/work-record/作業管理表（先崎）.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -272,6 +272,27 @@
     <t>同上</t>
     <rPh sb="0" eb="2">
       <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビューをコンソールで表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3時間半</t>
+    <rPh sb="1" eb="4">
+      <t>ジカンハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50行ぐらい</t>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -640,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -801,6 +822,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="13" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
+        <v>42713</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work-record/作業管理表（先崎）.xlsx
+++ b/work-record/作業管理表（先崎）.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -293,6 +293,44 @@
     <t>50行ぐらい</t>
     <rPh sb="2" eb="3">
       <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2時間半</t>
+    <rPh sb="1" eb="4">
+      <t>ジカンハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Serviceクラスの作成</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同上(エラー処理)</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -661,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.08203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -836,6 +874,39 @@
         <v>32</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work-record/作業管理表（先崎）.xlsx
+++ b/work-record/作業管理表（先崎）.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -331,6 +331,20 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグ修正</t>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5時間半</t>
+    <rPh sb="1" eb="4">
+      <t>ジカンハン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -699,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.08203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -907,6 +921,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="17" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1">
+        <v>42385</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
